--- a/biology/Médecine/Ulcère_œsophagien/Ulcère_œsophagien.xlsx
+++ b/biology/Médecine/Ulcère_œsophagien/Ulcère_œsophagien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ulc%C3%A8re_%C5%93sophagien</t>
+          <t>Ulcère_œsophagien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ulcère œsophagien est un ulcère attaquant l'œsophage.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ulc%C3%A8re_%C5%93sophagien</t>
+          <t>Ulcère_œsophagien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ulcère œsophagien est le plus communément causé par une œsophagite nécrosante[1]. Il est aussi couramment dû à un reflux gastro-œsophagien, une infection mycotique ou bactérienne (notamment par H. pylori). Il peut également être causé par l'absorption de produits chimiques, comme une ingestion excessive de médicaments (notamment d'anti-inflammatoires)[2]. En outre, une mauvaise ingestion de médicaments (sans excès) peut aussi en être la cause notamment à la suite d'une administration d'un comprimé nu par voie orale sans coupler la prise à une ingestion d'un liquide. Le médicament peut donc adhérer à la muqueuse œsophagienne puis libérer son principe actif. Est aussi parfois provoqué par la cigarette, l'alcool, et le régime alimentaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ulcère œsophagien est le plus communément causé par une œsophagite nécrosante. Il est aussi couramment dû à un reflux gastro-œsophagien, une infection mycotique ou bactérienne (notamment par H. pylori). Il peut également être causé par l'absorption de produits chimiques, comme une ingestion excessive de médicaments (notamment d'anti-inflammatoires). En outre, une mauvaise ingestion de médicaments (sans excès) peut aussi en être la cause notamment à la suite d'une administration d'un comprimé nu par voie orale sans coupler la prise à une ingestion d'un liquide. Le médicament peut donc adhérer à la muqueuse œsophagienne puis libérer son principe actif. Est aussi parfois provoqué par la cigarette, l'alcool, et le régime alimentaire.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ulc%C3%A8re_%C5%93sophagien</t>
+          <t>Ulcère_œsophagien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>brûlures de l'estomac
 inflammations de l'œsophage
 indigestions
-crampes abdominales[3]</t>
+crampes abdominales</t>
         </is>
       </c>
     </row>
